--- a/System Design/Priority Encoder.xlsx
+++ b/System Design/Priority Encoder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Education\3rd year\First Semester\VLSI\Project\VLSI-Project\System Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BECDC87-B085-4DBE-A48F-C9CD7B1B937E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{250A86A3-9407-461A-874B-00157980F647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -437,12 +437,12 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -453,10 +453,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>8</v>
@@ -474,7 +474,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>0</v>
       </c>
@@ -506,7 +506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>0</v>
       </c>
@@ -538,7 +538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>0</v>
       </c>
@@ -570,7 +570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>0</v>
       </c>
@@ -602,7 +602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>0</v>
       </c>
@@ -634,7 +634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>0</v>
       </c>
@@ -666,7 +666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>0</v>
       </c>
@@ -698,7 +698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>1</v>
       </c>
